--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90C7E0A2-F1A3-4854-87E8-B56D8BC277C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29049F18-B778-49E0-94B6-EBBCE92252F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -241,6 +241,24 @@
   </si>
   <si>
     <t>classes</t>
+  </si>
+  <si>
+    <t>completed joins</t>
+  </si>
+  <si>
+    <t>mysql table creation</t>
+  </si>
+  <si>
+    <t>21-052020</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>query execution</t>
+  </si>
+  <si>
+    <t>jsp</t>
   </si>
 </sst>
 </file>
@@ -668,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8B514-FBF7-4FA0-96BC-825EE119DD22}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,6 +932,34 @@
         <v>45</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>43971</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29049F18-B778-49E0-94B6-EBBCE92252F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE50F36-0BA5-4B10-96D9-7450CE2B66E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>jsp</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>SQL single row functions</t>
   </si>
 </sst>
 </file>
@@ -686,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8B514-FBF7-4FA0-96BC-825EE119DD22}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,6 +969,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>43973</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE50F36-0BA5-4B10-96D9-7450CE2B66E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C904D7E8-3251-4E6D-84E0-CB46AC948FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C904D7E8-3251-4E6D-84E0-CB46AC948FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F399CA-6866-46A9-8E2D-B59908683A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +381,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8B514-FBF7-4FA0-96BC-825EE119DD22}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,6 +987,56 @@
         <v>56</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>43974</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F399CA-6866-46A9-8E2D-B59908683A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954327F3-894C-4EE5-A5AC-CD1E25C139A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>SQL single row functions</t>
+  </si>
+  <si>
+    <t>DML queries</t>
+  </si>
+  <si>
+    <t>jdbc programming</t>
   </si>
 </sst>
 </file>
@@ -319,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -351,11 +357,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,13 +423,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +754,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G13" activeCellId="1" sqref="G16 G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,12 +766,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -991,51 +1043,59 @@
       <c r="A21" s="6">
         <v>43974</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="6">
+        <v>43976</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954327F3-894C-4EE5-A5AC-CD1E25C139A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C9AFD-1D4F-4A00-AA6F-90EDF2BB05D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>jdbc programming</t>
+  </si>
+  <si>
+    <t>Co-related sub query</t>
+  </si>
+  <si>
+    <t>SQL queries</t>
   </si>
 </sst>
 </file>
@@ -325,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -383,24 +389,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,16 +420,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +746,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G13" activeCellId="1" sqref="G16 G13"/>
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,12 +758,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1049,7 +1041,7 @@
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1060,7 +1052,7 @@
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1068,10 +1060,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="6">
+        <v>43978</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C9AFD-1D4F-4A00-AA6F-90EDF2BB05D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F3099E-0975-423B-AD7B-46A4760F3AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>SQL queries</t>
+  </si>
+  <si>
+    <t>queries</t>
+  </si>
+  <si>
+    <t>SQl Classification</t>
   </si>
 </sst>
 </file>
@@ -746,7 +752,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,10 +1080,18 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="6">
+        <v>43978</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F3099E-0975-423B-AD7B-46A4760F3AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20999BCC-7E0B-4BBC-BD8F-990108B4CECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>SQl Classification</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Servlet</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>web resources</t>
   </si>
 </sst>
 </file>
@@ -752,7 +764,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,16 +1106,32 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="6">
+        <v>43979</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="6">
+        <v>43980</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20999BCC-7E0B-4BBC-BD8F-990108B4CECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61485FD6-8A0C-45F2-9BC8-6F0C797D4B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>web resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps to create D.W.Prjct </t>
+  </si>
+  <si>
+    <t>SQL completed</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,7 +772,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,12 +784,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1059,7 +1067,7 @@
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1070,7 +1078,7 @@
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1134,10 +1142,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="12">
+        <v>43981</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61485FD6-8A0C-45F2-9BC8-6F0C797D4B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DFF156-605F-4B83-A3BB-0D3DC276F950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>SQL completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psuedo columns </t>
+  </si>
+  <si>
+    <t>tomcat server</t>
+  </si>
+  <si>
+    <t>SOLID Principles</t>
   </si>
 </sst>
 </file>
@@ -449,11 +458,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8B514-FBF7-4FA0-96BC-825EE119DD22}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,12 +793,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1142,7 +1151,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>43981</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1153,6 +1162,20 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DFF156-605F-4B83-A3BB-0D3DC276F950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B82CAD-54C2-4728-BE15-9BFF042A5F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>SOLID Principles</t>
+  </si>
+  <si>
+    <t>Build &amp; deployment process</t>
+  </si>
+  <si>
+    <t>LSP</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +469,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8B514-FBF7-4FA0-96BC-825EE119DD22}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,6 +1187,20 @@
         <v>71</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>43984</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B82CAD-54C2-4728-BE15-9BFF042A5F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97669DA4-7F71-4394-887C-BBDAF247E610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>LSP</t>
+  </si>
+  <si>
+    <t>webURL Structure</t>
+  </si>
+  <si>
+    <t>Key Element</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>singleton class</t>
   </si>
 </sst>
 </file>
@@ -467,11 +479,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8B514-FBF7-4FA0-96BC-825EE119DD22}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D30" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,12 +814,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1188,7 +1200,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>43984</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1199,6 +1211,34 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>43985</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>43986</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97669DA4-7F71-4394-887C-BBDAF247E610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2DC1C8-2129-431A-9BDA-34C839308D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -331,6 +331,21 @@
   </si>
   <si>
     <t>singleton class</t>
+  </si>
+  <si>
+    <t>single row function</t>
+  </si>
+  <si>
+    <t>http request</t>
+  </si>
+  <si>
+    <t>GET and POST</t>
+  </si>
+  <si>
+    <t>Builder pattern</t>
+  </si>
+  <si>
+    <t>decorator</t>
   </si>
 </sst>
 </file>
@@ -799,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8B514-FBF7-4FA0-96BC-825EE119DD22}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D31"/>
+      <selection activeCell="D32" sqref="D32:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,6 +1256,34 @@
         <v>77</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>43987</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>43988</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/Daily Update/Akshay Classes.xlsx
+++ b/Daily Update/Akshay Classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new1\Daily Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2DC1C8-2129-431A-9BDA-34C839308D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A3F8F-633B-4AF1-B4FD-850B1466E423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B933BF5-2A13-43CA-A02A-C7C707897E4A}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t xml:space="preserve">TIME      </t>
   </si>
@@ -346,6 +346,24 @@
   </si>
   <si>
     <t>decorator</t>
+  </si>
+  <si>
+    <t>null value logic</t>
+  </si>
+  <si>
+    <t>jdbc+servlet program</t>
+  </si>
+  <si>
+    <t>ER diagram</t>
+  </si>
+  <si>
+    <t>Servlet Container</t>
+  </si>
+  <si>
+    <t>proto type pattern</t>
+  </si>
+  <si>
+    <t>transient &amp;persistance</t>
   </si>
 </sst>
 </file>
@@ -814,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8B514-FBF7-4FA0-96BC-825EE119DD22}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D33"/>
+      <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,6 +1302,34 @@
         <v>82</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>43990</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>43991</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
